--- a/个人报销/XT 报销电子档模板202009-石秦锋.xlsx
+++ b/个人报销/XT 报销电子档模板202009-石秦锋.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shiqinfeng\个人报销\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9350"/>
   </bookViews>
   <sheets>
     <sheet name="报销清单" sheetId="3" r:id="rId1"/>
@@ -31,12 +31,12 @@
     <definedName name="医疗保健">Sheet1!$I$2:$I$3</definedName>
     <definedName name="娱乐">Sheet1!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="132">
   <si>
     <t>项目名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,9 +418,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONGMU01</t>
-  </si>
-  <si>
     <t>石秦锋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,26 +432,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONGMU01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打车租车</t>
   </si>
   <si>
-    <t>咸阳机场--建国饭店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波栎社国际机场--宁波东睦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西稍门--咸阳机场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建国饭店--家</t>
+    <t>26485200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咸阳机场--家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10434068</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68021813</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八一广场--奥林匹克花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44801609</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -462,87 +475,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海王星健身药房--宁波东睦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波东睦--宁波栎社国际机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸阳机场-- 西稍门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西稍门--咸阳机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波东睦--宁波栎社国际机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸阳机场--西稍门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西稍门--家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城南客运站--咸阳机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波栎社国际机场--宁波东睦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>咸阳机场--西稍门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宁波东睦--宁波栎社国际机场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10526394</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83607873</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10293151</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50219499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50219499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28277956</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12068418</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26485264</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26485205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26485200</t>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打车租车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -550,18 +499,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>64567120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00922992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00922992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DONGMU01</t>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44805223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌机厂--八一广场（无发票用00922992/44805223抵消）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥林匹克花园--南昌机场（无发票用00922992/44805223抵消）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南昌机厂--八一广场（无发票用00922992/44805223抵消）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -793,15 +770,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K40" totalsRowCount="1" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="A1:K39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:K43" totalsRowCount="1" headerRowDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="A1:K42"/>
+  <sortState ref="A2:K39">
+    <sortCondition descending="1" ref="G1:G39"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="项目名" dataDxfId="5"/>
     <tableColumn id="2" name="报销人"/>
     <tableColumn id="3" name="类型" dataDxfId="4" totalsRowDxfId="2"/>
     <tableColumn id="4" name="子项"/>
     <tableColumn id="5" name="发生费用" totalsRowFunction="custom" totalsRowDxfId="1">
-      <totalsRowFormula>SUM(E2:E39)</totalsRowFormula>
+      <totalsRowFormula>SUM(E2:E42)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="发票号" dataDxfId="3" totalsRowDxfId="0"/>
     <tableColumn id="7" name="费用发生日期"/>
@@ -815,7 +795,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1102,25 +1082,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="12" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" customWidth="1"/>
-    <col min="11" max="11" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
+    <col min="8" max="8" width="14.08984375" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" customWidth="1"/>
+    <col min="10" max="10" width="10.1796875" customWidth="1"/>
+    <col min="11" max="11" width="40.36328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1160,595 +1140,392 @@
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="9">
+        <v>37.92</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44166</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="9">
-        <v>25</v>
-      </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="4">
-        <v>43928</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="K2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E3" s="9">
-        <v>35.24</v>
+        <v>15</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G3" s="4">
-        <v>43928</v>
+        <v>44166</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="E4" s="9">
         <v>25</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="G4" s="4">
-        <v>43951</v>
+        <v>44166</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E5" s="9">
-        <v>32.1</v>
+        <v>100.07</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G5" s="4">
-        <v>43951</v>
+        <v>44160</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="5" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E6" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G6" s="4">
-        <v>43957</v>
+        <v>44160</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="9">
-        <v>20.97</v>
+        <v>35.75</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="G7" s="4">
-        <v>43957</v>
+        <v>44132</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="E8" s="9">
-        <v>20.98</v>
+        <v>15</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="4">
-        <v>43961</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="H8" s="5" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="E9" s="9">
-        <v>25.15</v>
+        <v>25</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G9" s="4">
-        <v>44005</v>
+        <v>44132</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E10" s="9">
-        <v>25</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="G10" s="4">
-        <v>44005</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A10" s="6"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="9">
-        <v>25</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="G11" s="4">
-        <v>44012</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A11" s="6"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="J11" s="5"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="9">
-        <v>20.67</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G12" s="4">
-        <v>44012</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="J12" s="5"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="9">
-        <v>33.78</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G13" s="4">
-        <v>44037</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A13" s="6"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="J13" s="5"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="9">
-        <v>25</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="4">
-        <v>44037</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="9">
-        <v>13.35</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G15" s="4">
-        <v>44037</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="9">
-        <v>50</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="4">
-        <v>44041</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="9">
-        <v>33.770000000000003</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G17" s="4">
-        <v>44041</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A17" s="6"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="4"/>
-      <c r="J17" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E18" s="9">
-        <v>25</v>
-      </c>
+      <c r="A18" s="6"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="4">
-        <v>44078</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="9">
-        <v>33.409999999999997</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="4">
-        <v>44078</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>106</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="9">
-        <f>SUM(E2:E19)</f>
-        <v>494.41999999999996</v>
-      </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="11"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -1787,7 +1564,10 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="9">
+        <f>SUM(E2:E22)</f>
+        <v>353.74</v>
+      </c>
       <c r="F23" s="11"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -1970,7 +1750,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="15"/>
+      <c r="F37" s="11"/>
       <c r="G37" s="4"/>
       <c r="H37" s="5"/>
       <c r="I37" s="4"/>
@@ -1983,7 +1763,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="11"/>
       <c r="G38" s="4"/>
       <c r="H38" s="5"/>
       <c r="I38" s="4"/>
@@ -2003,18 +1783,57 @@
       <c r="J39" s="5"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="17"/>
-      <c r="E40" s="13">
-        <f>SUM(E2:E39)</f>
-        <v>988.83999999999992</v>
-      </c>
-      <c r="F40" s="14"/>
+    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="17"/>
+      <c r="E43" s="13">
+        <f>SUM(E2:E42)</f>
+        <v>707.48</v>
+      </c>
+      <c r="F43" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D42">
       <formula1>INDIRECT($C2)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2030,19 +1849,19 @@
           <x14:formula1>
             <xm:f>Sheet1!$M$1:$M$14</xm:f>
           </x14:formula1>
-          <xm:sqref>A21:A38</xm:sqref>
+          <xm:sqref>A24:A41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C38</xm:sqref>
+          <xm:sqref>C2:C41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$M$1:$M$15</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A20</xm:sqref>
+          <xm:sqref>A2:A23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2059,10 +1878,10 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2520,7 +2339,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
